--- a/modamizbir/urun-kodlari.xlsx
+++ b/modamizbir/urun-kodlari.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E3D7ED-A0BF-4966-9352-CA075B77169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Ürün Kodları</t>
   </si>
@@ -149,16 +148,27 @@
   </si>
   <si>
     <t>https://www.modamizbir.com/biskuvi-fitilli-bayan-tayt-67171</t>
+  </si>
+  <si>
+    <t>https://www.modamizbir.com/ten-rugan-kadin-stiletto-85337</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,14 +197,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,11 +485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +712,15 @@
         <v>42</v>
       </c>
     </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A44" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>